--- a/MAXPP.xlsx
+++ b/MAXPP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13800" activeTab="7"/>
+    <workbookView xWindow="540" yWindow="460" windowWidth="25600" windowHeight="14820" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet6" sheetId="6" r:id="rId1"/>
@@ -488,7 +488,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3164,11 +3163,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1771320512"/>
-        <c:axId val="1954364736"/>
+        <c:axId val="2131861792"/>
+        <c:axId val="2131383056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1771320512"/>
+        <c:axId val="2131861792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -3214,7 +3213,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3281,12 +3279,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1954364736"/>
+        <c:crossAx val="2131383056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1954364736"/>
+        <c:axId val="2131383056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50.0"/>
@@ -3337,7 +3335,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3404,7 +3401,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1771320512"/>
+        <c:crossAx val="2131861792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3420,7 +3417,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3762,11 +3758,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1987836400"/>
-        <c:axId val="-1987710384"/>
+        <c:axId val="2111513488"/>
+        <c:axId val="2111519728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1987836400"/>
+        <c:axId val="2111513488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3874,7 +3870,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1987710384"/>
+        <c:crossAx val="2111519728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3882,7 +3878,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1987710384"/>
+        <c:axId val="2111519728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3992,7 +3988,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1987836400"/>
+        <c:crossAx val="2111513488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4353,11 +4349,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1800379312"/>
-        <c:axId val="-1990149664"/>
+        <c:axId val="2131690432"/>
+        <c:axId val="2131696672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1800379312"/>
+        <c:axId val="2131690432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4465,7 +4461,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1990149664"/>
+        <c:crossAx val="2131696672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4473,7 +4469,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1990149664"/>
+        <c:axId val="2131696672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4583,7 +4579,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1800379312"/>
+        <c:crossAx val="2131690432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4928,11 +4924,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1955141472"/>
-        <c:axId val="-1955135232"/>
+        <c:axId val="2132962720"/>
+        <c:axId val="2132968960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1955141472"/>
+        <c:axId val="2132962720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5040,7 +5036,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1955135232"/>
+        <c:crossAx val="2132968960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5048,7 +5044,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1955135232"/>
+        <c:axId val="2132968960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5150,7 +5146,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1955141472"/>
+        <c:crossAx val="2132962720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5308,7 +5304,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6748,11 +6743,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1933246576"/>
-        <c:axId val="1820206496"/>
+        <c:axId val="2131441408"/>
+        <c:axId val="2131447504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1933246576"/>
+        <c:axId val="2131441408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -6794,7 +6789,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6861,12 +6855,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1820206496"/>
+        <c:crossAx val="2131447504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1820206496"/>
+        <c:axId val="2131447504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50.0"/>
@@ -6917,7 +6911,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6984,7 +6977,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1933246576"/>
+        <c:crossAx val="2131441408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7000,7 +6993,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7877,11 +7869,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1988388688"/>
-        <c:axId val="1805613232"/>
+        <c:axId val="2131816256"/>
+        <c:axId val="2131810320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1988388688"/>
+        <c:axId val="2131816256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -7990,12 +7982,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1805613232"/>
+        <c:crossAx val="2131810320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1805613232"/>
+        <c:axId val="2131810320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50.0"/>
@@ -8113,7 +8105,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1988388688"/>
+        <c:crossAx val="2131816256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9704,11 +9696,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1988452512"/>
-        <c:axId val="1771814096"/>
+        <c:axId val="2131533888"/>
+        <c:axId val="2131539968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1988452512"/>
+        <c:axId val="2131533888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -9817,12 +9809,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1771814096"/>
+        <c:crossAx val="2131539968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1771814096"/>
+        <c:axId val="2131539968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -9954,7 +9946,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1988452512"/>
+        <c:crossAx val="2131533888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11533,11 +11525,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2009955216"/>
-        <c:axId val="1771318368"/>
+        <c:axId val="2131774992"/>
+        <c:axId val="2111463520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2009955216"/>
+        <c:axId val="2131774992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -11646,12 +11638,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1771318368"/>
+        <c:crossAx val="2111463520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1771318368"/>
+        <c:axId val="2111463520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -11769,7 +11761,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2009955216"/>
+        <c:crossAx val="2131774992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12658,11 +12650,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1959168304"/>
-        <c:axId val="1804884800"/>
+        <c:axId val="2132925872"/>
+        <c:axId val="2113554048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1959168304"/>
+        <c:axId val="2132925872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -12771,12 +12763,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1804884800"/>
+        <c:crossAx val="2113554048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1804884800"/>
+        <c:axId val="2113554048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -12894,7 +12886,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1959168304"/>
+        <c:crossAx val="2132925872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13252,11 +13244,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1824174944"/>
-        <c:axId val="-2019936464"/>
+        <c:axId val="2131574816"/>
+        <c:axId val="2131581072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1824174944"/>
+        <c:axId val="2131574816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13364,7 +13356,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2019936464"/>
+        <c:crossAx val="2131581072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13372,7 +13364,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2019936464"/>
+        <c:axId val="2131581072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13482,7 +13474,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1824174944"/>
+        <c:crossAx val="2131574816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13843,11 +13835,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1819761904"/>
-        <c:axId val="1893458080"/>
+        <c:axId val="2113623440"/>
+        <c:axId val="2113629680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1819761904"/>
+        <c:axId val="2113623440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13955,7 +13947,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1893458080"/>
+        <c:crossAx val="2113629680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13963,7 +13955,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1893458080"/>
+        <c:axId val="2113629680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14073,7 +14065,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1819761904"/>
+        <c:crossAx val="2113623440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14418,11 +14410,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1805441472"/>
-        <c:axId val="1771941472"/>
+        <c:axId val="2131655376"/>
+        <c:axId val="2113658592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1805441472"/>
+        <c:axId val="2131655376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14530,7 +14522,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1771941472"/>
+        <c:crossAx val="2113658592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14538,7 +14530,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1771941472"/>
+        <c:axId val="2113658592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14640,7 +14632,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1805441472"/>
+        <c:crossAx val="2131655376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21505,15 +21497,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -21600,15 +21592,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -28401,10 +28393,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M103"/>
+  <dimension ref="A1:M105"/>
   <sheetViews>
-    <sheetView topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="H117" sqref="H117"/>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="L106" sqref="L106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -32756,7 +32748,7 @@
         <v>296</v>
       </c>
       <c r="C102">
-        <f t="shared" ref="C102:K102" si="6">SUM(C1:C101)</f>
+        <f t="shared" ref="C102:J102" si="6">SUM(C1:C101)</f>
         <v>304</v>
       </c>
       <c r="D102">
@@ -32804,7 +32796,7 @@
         <v>2.96</v>
       </c>
       <c r="C103">
-        <f t="shared" ref="C103:K103" si="7">C102/100</f>
+        <f t="shared" ref="C103:J103" si="7">C102/100</f>
         <v>3.04</v>
       </c>
       <c r="D103">
@@ -32844,6 +32836,12 @@
       </c>
       <c r="M103">
         <v>7.26</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L105">
+        <f>(L103-M103)/M103</f>
+        <v>0.45316804407713512</v>
       </c>
     </row>
   </sheetData>
@@ -32854,10 +32852,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:O103"/>
   <sheetViews>
-    <sheetView topLeftCell="F101" workbookViewId="0">
-      <selection activeCell="T120" sqref="T120"/>
+    <sheetView tabSelected="1" topLeftCell="F87" workbookViewId="0">
+      <selection activeCell="T117" sqref="T117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -37178,7 +37176,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -37223,7 +37221,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -37268,7 +37266,7 @@
         <v>96.5</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -37313,7 +37311,7 @@
         <v>35.25</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -37358,7 +37356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -37403,7 +37401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B102">
         <f>SUM(B1:B101)</f>
         <v>6261</v>
@@ -37453,7 +37451,7 @@
         <v>1659.75</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B103">
         <f>B102/100</f>
         <v>62.61</v>
@@ -37501,6 +37499,10 @@
       <c r="N103">
         <f t="shared" si="10"/>
         <v>16.5975</v>
+      </c>
+      <c r="O103">
+        <f>(M103-N103)/N103</f>
+        <v>1.77089923181202</v>
       </c>
     </row>
   </sheetData>
@@ -37513,8 +37515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:R7"/>
+    <sheetView topLeftCell="I28" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8:Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -37902,11 +37904,49 @@
         <f>A8*4/B8</f>
         <v>2.2239458334553324</v>
       </c>
+      <c r="M8">
+        <f>(N2-M2)/N2</f>
+        <v>0.96270275437332242</v>
+      </c>
+      <c r="O8">
+        <f>(P2-O2)/P2</f>
+        <v>0.27040314650934122</v>
+      </c>
+      <c r="Q8">
+        <f>(Q2-R2)/R2</f>
+        <v>25.811631346973567</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M9">
+        <f t="shared" ref="M9:M11" si="2">(N3-M3)/N3</f>
+        <v>0.9311237291779576</v>
+      </c>
+      <c r="O9">
+        <f t="shared" ref="O9:O13" si="3">(P3-O3)/P3</f>
+        <v>0.27549111318989711</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" ref="Q9:Q13" si="4">(Q3-R3)/R3</f>
+        <v>13.51878837319356</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>0.87444087540056814</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="3"/>
+        <v>0.23544594207054775</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="4"/>
+        <v>6.9643753744721932</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -37924,6 +37964,18 @@
       <c r="I11" t="s">
         <v>7</v>
       </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>0.79273280821554426</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="3"/>
+        <v>0.23905153641422697</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="4"/>
+        <v>3.8246902531488649</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -37945,13 +37997,25 @@
         <v>3051</v>
       </c>
       <c r="G12">
-        <f t="shared" ref="G12:G17" si="2">SUM(C12:F12)</f>
+        <f t="shared" ref="G12:G17" si="5">SUM(C12:F12)</f>
         <v>12204</v>
       </c>
       <c r="I12">
         <f>A12*4/B12</f>
         <v>8.3903740147546077E-2</v>
       </c>
+      <c r="M12">
+        <f>(N6-M6)/N6</f>
+        <v>0.64286960937489745</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="3"/>
+        <v>0.26045187689023308</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="4"/>
+        <v>1.8000977409109653</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -37973,13 +38037,25 @@
         <v>3207</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>12828</v>
       </c>
       <c r="I13">
         <f>A13*4/B13</f>
         <v>0.17480421645013861</v>
       </c>
+      <c r="M13">
+        <f>(N7-M7)/N7</f>
+        <v>0.24045626743160153</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="3"/>
+        <v>0.42638241172551633</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="4"/>
+        <v>0.31657988489813266</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -38001,13 +38077,17 @@
         <v>3487</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>13948</v>
       </c>
       <c r="I14">
         <f>A14*4/B14</f>
         <v>0.35253643165119641</v>
       </c>
+      <c r="M14" t="e">
+        <f>(N8-M8)/N8</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -38029,11 +38109,11 @@
         <v>4133</v>
       </c>
       <c r="G15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>16532</v>
       </c>
       <c r="I15">
-        <f t="shared" ref="I15:I16" si="3">A15*4/B15</f>
+        <f t="shared" ref="I15:I16" si="6">A15*4/B15</f>
         <v>0.70012136088631649</v>
       </c>
     </row>
@@ -38057,11 +38137,11 @@
         <v>5621</v>
       </c>
       <c r="G16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>22484</v>
       </c>
       <c r="I16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4027025313933763</v>
       </c>
     </row>
@@ -38085,7 +38165,7 @@
         <v>7505</v>
       </c>
       <c r="G17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>30020</v>
       </c>
       <c r="I17">
@@ -38228,14 +38308,14 @@
         <v>2795</v>
       </c>
       <c r="G30">
-        <f t="shared" ref="G30:G35" si="4">SUM(C30:F30)</f>
+        <f t="shared" ref="G30:G35" si="7">SUM(C30:F30)</f>
         <v>11224</v>
       </c>
       <c r="H30" t="s">
         <v>13</v>
       </c>
       <c r="I30">
-        <f t="shared" ref="I30:I31" si="5">A30*4/B30</f>
+        <f t="shared" ref="I30:I31" si="8">A30*4/B30</f>
         <v>36.149806937182433</v>
       </c>
     </row>
@@ -38259,14 +38339,14 @@
         <v>2795</v>
       </c>
       <c r="G31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>14374</v>
       </c>
       <c r="H31" t="s">
         <v>14</v>
       </c>
       <c r="I31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>40.931627890056284</v>
       </c>
     </row>
@@ -38290,7 +38370,7 @@
         <v>2795</v>
       </c>
       <c r="G32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>16052</v>
       </c>
       <c r="H32" t="s">
@@ -38321,7 +38401,7 @@
         <v>2801</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>19414</v>
       </c>
       <c r="H33" s="1" t="s">
@@ -38352,7 +38432,7 @@
         <v>2815</v>
       </c>
       <c r="G34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>26786</v>
       </c>
       <c r="H34" t="s">
@@ -38384,7 +38464,7 @@
         <v>2815</v>
       </c>
       <c r="G35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>26786</v>
       </c>
       <c r="H35" t="s">
@@ -38433,7 +38513,7 @@
         <v>2817</v>
       </c>
       <c r="G38">
-        <f t="shared" ref="G38:G44" si="6">SUM(C38:F38)</f>
+        <f t="shared" ref="G38:G44" si="9">SUM(C38:F38)</f>
         <v>11268</v>
       </c>
       <c r="I38">
@@ -38461,7 +38541,7 @@
         <v>3045</v>
       </c>
       <c r="G39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>12180</v>
       </c>
       <c r="I39">
@@ -38489,7 +38569,7 @@
         <v>3433</v>
       </c>
       <c r="G40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>13732</v>
       </c>
       <c r="I40">
@@ -38517,11 +38597,11 @@
         <v>3975</v>
       </c>
       <c r="G41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>15900</v>
       </c>
       <c r="I41">
-        <f t="shared" ref="I41:I42" si="7">A41*4/B41</f>
+        <f t="shared" ref="I41:I42" si="10">A41*4/B41</f>
         <v>2.5570059779732577</v>
       </c>
     </row>
@@ -38545,11 +38625,11 @@
         <v>5025</v>
       </c>
       <c r="G42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>20100</v>
       </c>
       <c r="I42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.1171254480481645</v>
       </c>
     </row>
@@ -38573,7 +38653,7 @@
         <v>7053</v>
       </c>
       <c r="G43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>28212</v>
       </c>
       <c r="I43">
@@ -38601,7 +38681,7 @@
         <v>11771</v>
       </c>
       <c r="G44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>47084</v>
       </c>
       <c r="I44">
@@ -38619,8 +38699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I3" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView topLeftCell="I29" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8:Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -39007,11 +39087,49 @@
         <f>A8*4/B8</f>
         <v>2.2239458334553324</v>
       </c>
+      <c r="M8">
+        <f>(N2-M2)/N2</f>
+        <v>0.97596819898815335</v>
+      </c>
+      <c r="O8">
+        <f>(P2-O2)/P2</f>
+        <v>0.37380191693290737</v>
+      </c>
+      <c r="Q8">
+        <f>(Q2-R2)/R2</f>
+        <v>40.611529635546013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M9">
+        <f t="shared" ref="M9:M14" si="2">(N3-M3)/N3</f>
+        <v>0.96355339916132277</v>
+      </c>
+      <c r="O9">
+        <f t="shared" ref="O9:O13" si="3">(P3-O3)/P3</f>
+        <v>0.32495894909688011</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" ref="Q9:Q13" si="4">(Q3-R3)/R3</f>
+        <v>26.43740093695645</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>0.95409298670055476</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="3"/>
+        <v>0.32449752403145937</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="4"/>
+        <v>20.783164011937181</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -39029,6 +39147,18 @@
       <c r="I11" t="s">
         <v>7</v>
       </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>0.92926640016593809</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="3"/>
+        <v>0.29408805031446539</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="4"/>
+        <v>13.137552766237807</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -39050,13 +39180,25 @@
         <v>3051</v>
       </c>
       <c r="G12">
-        <f t="shared" ref="G12:G17" si="2">SUM(C12:F12)</f>
+        <f t="shared" ref="G12:G17" si="5">SUM(C12:F12)</f>
         <v>12204</v>
       </c>
       <c r="I12">
         <f>A12*4/B12</f>
         <v>8.3903740147546077E-2</v>
       </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>0.87498358331134707</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="3"/>
+        <v>0.28487562189054727</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="4"/>
+        <v>6.9989494698960169</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -39078,13 +39220,25 @@
         <v>3207</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>12828</v>
       </c>
       <c r="I13">
         <f>A13*4/B13</f>
         <v>0.17480421645013861</v>
       </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>0.7738353322729149</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="3"/>
+        <v>0.43102226003119243</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="4"/>
+        <v>3.4215571337902726</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -39106,13 +39260,17 @@
         <v>3487</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>13948</v>
       </c>
       <c r="I14">
         <f>A14*4/B14</f>
         <v>0.35253643165119641</v>
       </c>
+      <c r="M14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -39134,11 +39292,11 @@
         <v>4133</v>
       </c>
       <c r="G15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>16532</v>
       </c>
       <c r="I15">
-        <f t="shared" ref="I15:I16" si="3">A15*4/B15</f>
+        <f t="shared" ref="I15:I16" si="6">A15*4/B15</f>
         <v>0.70012136088631649</v>
       </c>
     </row>
@@ -39162,11 +39320,11 @@
         <v>5621</v>
       </c>
       <c r="G16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>22484</v>
       </c>
       <c r="I16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4027025313933763</v>
       </c>
     </row>
@@ -39190,7 +39348,7 @@
         <v>7505</v>
       </c>
       <c r="G17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>30020</v>
       </c>
       <c r="I17">
@@ -39333,14 +39491,14 @@
         <v>2795</v>
       </c>
       <c r="G30">
-        <f t="shared" ref="G30:G35" si="4">SUM(C30:F30)</f>
+        <f t="shared" ref="G30:G35" si="7">SUM(C30:F30)</f>
         <v>11224</v>
       </c>
       <c r="H30" t="s">
         <v>13</v>
       </c>
       <c r="I30">
-        <f t="shared" ref="I30:I31" si="5">A30*4/B30</f>
+        <f t="shared" ref="I30:I31" si="8">A30*4/B30</f>
         <v>36.149806937182433</v>
       </c>
     </row>
@@ -39364,14 +39522,14 @@
         <v>2795</v>
       </c>
       <c r="G31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>14374</v>
       </c>
       <c r="H31" t="s">
         <v>14</v>
       </c>
       <c r="I31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>40.931627890056284</v>
       </c>
     </row>
@@ -39395,7 +39553,7 @@
         <v>2795</v>
       </c>
       <c r="G32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>16052</v>
       </c>
       <c r="H32" t="s">
@@ -39426,7 +39584,7 @@
         <v>2801</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>19414</v>
       </c>
       <c r="H33" s="1" t="s">
@@ -39457,7 +39615,7 @@
         <v>2815</v>
       </c>
       <c r="G34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>26786</v>
       </c>
       <c r="H34" t="s">
@@ -39489,7 +39647,7 @@
         <v>2815</v>
       </c>
       <c r="G35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>26786</v>
       </c>
       <c r="H35" t="s">
@@ -39538,7 +39696,7 @@
         <v>2817</v>
       </c>
       <c r="G38">
-        <f t="shared" ref="G38:G44" si="6">SUM(C38:F38)</f>
+        <f t="shared" ref="G38:G44" si="9">SUM(C38:F38)</f>
         <v>11268</v>
       </c>
       <c r="I38">
@@ -39566,7 +39724,7 @@
         <v>3045</v>
       </c>
       <c r="G39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>12180</v>
       </c>
       <c r="I39">
@@ -39594,7 +39752,7 @@
         <v>3433</v>
       </c>
       <c r="G40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>13732</v>
       </c>
       <c r="I40">
@@ -39622,11 +39780,11 @@
         <v>3975</v>
       </c>
       <c r="G41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>15900</v>
       </c>
       <c r="I41">
-        <f t="shared" ref="I41:I42" si="7">A41*4/B41</f>
+        <f t="shared" ref="I41:I42" si="10">A41*4/B41</f>
         <v>2.5570059779732577</v>
       </c>
     </row>
@@ -39650,11 +39808,11 @@
         <v>5025</v>
       </c>
       <c r="G42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>20100</v>
       </c>
       <c r="I42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.1171254480481645</v>
       </c>
     </row>
@@ -39678,7 +39836,7 @@
         <v>7053</v>
       </c>
       <c r="G43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>28212</v>
       </c>
       <c r="I43">
@@ -39706,7 +39864,7 @@
         <v>11771</v>
       </c>
       <c r="G44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>47084</v>
       </c>
       <c r="I44">
